--- a/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
+++ b/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\case2_cut_off\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F331DD-19A4-44A7-81FB-C5A272C16D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="case2_cut_off" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case2_cut_off" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
-  <si>
-    <t>SUD - lower%</t>
-  </si>
-  <si>
-    <t>SUD - upper%</t>
-  </si>
-  <si>
-    <t>MUD - lower%</t>
-  </si>
-  <si>
-    <t>MUD - upper%</t>
-  </si>
-  <si>
-    <t>autoclave</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>cabinet washer</t>
-  </si>
-  <si>
-    <t>Life time</t>
-  </si>
-  <si>
-    <t>sterilization</t>
-  </si>
-  <si>
-    <t>surgery time</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{AFBF9B41-88D7-4AFF-8F66-8A60D95E9495}"/>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,136 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SUD - lower%</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SUD - upper%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MUD - lower%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MUD - upper%</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-0.27679999999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.41520000000000001</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>autoclave</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-27.68%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.52%</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-0.18360000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.27539999999999998</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>cabinet washer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-18.36%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.54%</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-0.23830000000000001</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Life time</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-23.83%</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-4.4299999999999999E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.2697</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>sterilization</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-4.43%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.97%</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-7.22E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.1522</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-0.14380000000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.30309999999999998</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>surgery time</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-7.22%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15.22%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-14.38%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.31%</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-7.22E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.1522</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-0.62460000000000004</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.0251999999999999</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-7.22%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15.22%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-62.46%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>102.52%</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
+++ b/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-27.68%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>41.52%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -500,13 +500,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-18.36%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.54%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.08550703776047054</v>
       </c>
     </row>
     <row r="4">
@@ -525,15 +523,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.38%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-23.83%</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2.458186674050149</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.3072733342562685</v>
       </c>
     </row>
     <row r="5">
@@ -552,15 +546,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-4.43%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.97%</t>
-        </is>
+      <c r="D5" t="n">
+        <v>-0.1272926675481796</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1744844377969623</v>
       </c>
     </row>
     <row r="6">
@@ -569,25 +559,17 @@
           <t>surgery time</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-7.22%</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15.22%</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-14.38%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.31%</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.27710843373494</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3942857142857142</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.27710843373494</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.3942857142857142</v>
       </c>
     </row>
     <row r="7">
@@ -596,25 +578,17 @@
           <t>total</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-7.22%</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15.22%</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-62.46%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>102.52%</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.27710843373494</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.3942857142857142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.60800244023691</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.6125816485054909</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
+++ b/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
@@ -471,15 +471,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.04297740606868381</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.0143258020228946</v>
       </c>
     </row>
     <row r="3">
@@ -547,10 +543,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.1272926675481796</v>
+        <v>-0.1272627336285451</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1744844377969623</v>
+        <v>0.1749397775461333</v>
       </c>
     </row>
     <row r="6">
@@ -585,10 +581,10 @@
         <v>-0.3942857142857142</v>
       </c>
       <c r="D7" t="n">
-        <v>2.60800244023691</v>
+        <v>2.651009780225228</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6125816485054909</v>
+        <v>-0.6264521107792146</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
+++ b/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.04297740606868381</v>
+        <v>-0.04775709098785285</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0143258020228946</v>
+        <v>0.03183806065856872</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.08550703776047054</v>
+        <v>-0.07390180689442381</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.458186674050149</v>
+        <v>2.731121589364093</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3072733342562685</v>
+        <v>-0.3413901986705115</v>
       </c>
     </row>
     <row r="5">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.1272627336285451</v>
+        <v>-0.009978096173807233</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1749397775461333</v>
+        <v>0.1511965103966819</v>
       </c>
     </row>
     <row r="6">
@@ -562,10 +562,10 @@
         <v>-0.3942857142857142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27710843373494</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3942857142857142</v>
+        <v>-0.3942857142857141</v>
       </c>
     </row>
     <row r="7">
@@ -581,10 +581,10 @@
         <v>-0.3942857142857142</v>
       </c>
       <c r="D7" t="n">
-        <v>2.651009780225228</v>
+        <v>2.950494835937372</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6264521107792146</v>
+        <v>-0.6265431487953987</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
+++ b/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
@@ -1,43 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\case2_cut_off\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10311735-B1DA-4D48-A036-05AB8089F308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case2_cut_off" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="case2_cut_off" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+  <si>
+    <t>SUD - lower%</t>
+  </si>
+  <si>
+    <t>SUD - upper%</t>
+  </si>
+  <si>
+    <t>MUD - lower%</t>
+  </si>
+  <si>
+    <t>MUD - upper%</t>
+  </si>
+  <si>
+    <t>autoclave</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>cabinet washer</t>
+  </si>
+  <si>
+    <t>Life time</t>
+  </si>
+  <si>
+    <t>sterilization</t>
+  </si>
+  <si>
+    <t>surgery time</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>consq</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>H2R</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>ASW</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Autoclave</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Surgery time</t>
+  </si>
+  <si>
+    <t>Sterilization equipment</t>
+  </si>
+  <si>
+    <t>Cabinet washer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -46,93 +177,106 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{AA887ED1-B80B-4C7A-A6EA-16A0B40EFE64}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,174 +564,592 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SUD - lower%</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SUD - upper%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MUD - lower%</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MUD - upper%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>autoclave</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.04775709098785285</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.03183806065856872</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>cabinet washer</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.07390180689442381</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Life time</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15">
+        <v>-4.775709098785285E-2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3.1838060658568722E-2</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1.6069396342335809E-2</v>
+      </c>
+      <c r="L2" s="15">
+        <v>1.6069396342335809E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="16">
+        <v>-7.3901806894423813E-2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="16">
+        <v>-3.7241910717973857E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
         <v>2.731121589364093</v>
       </c>
-      <c r="E4" t="n">
-        <v>-0.3413901986705115</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>sterilization</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.009978096173807233</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1511965103966819</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>surgery time</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.27710843373494</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3942857142857142</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2771084337349398</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.3942857142857141</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.27710843373494</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.3942857142857142</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.950494835937372</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.6265431487953987</v>
-      </c>
+      <c r="E4" s="16">
+        <v>-0.34139019867051151</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="16">
+        <v>3.3602643152762832</v>
+      </c>
+      <c r="L4" s="16">
+        <v>-0.42003303940953551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16">
+        <v>-9.9780970175366111E-3</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.1511964925582977</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="16">
+        <v>-0.33826599291200721</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.39883963125630351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.27710843373493999</v>
+      </c>
+      <c r="C6" s="16">
+        <v>-0.39428571428571418</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.27710843373493982</v>
+      </c>
+      <c r="E6" s="16">
+        <v>-0.39428571428571407</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.27710843373493982</v>
+      </c>
+      <c r="J6" s="16">
+        <v>-0.39428571428571441</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.2771084337349396</v>
+      </c>
+      <c r="L6" s="16">
+        <v>-0.39428571428571429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.27710843373493999</v>
+      </c>
+      <c r="C7" s="17">
+        <v>-0.39428571428571418</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2.9504948350936431</v>
+      </c>
+      <c r="E7" s="17">
+        <v>-0.62654316663378296</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.27710843373493982</v>
+      </c>
+      <c r="J7" s="17">
+        <v>-0.39428571428571441</v>
+      </c>
+      <c r="K7" s="17">
+        <v>3.3151761524415511</v>
+      </c>
+      <c r="L7" s="17">
+        <v>-0.43665163681458441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-4.775709098785285E-2</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3.1838060658568722E-2</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1.6069396342335809E-2</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1.6069396342335809E-2</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="16">
+        <v>-7.3901806894423813E-2</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="16">
+        <v>-3.7241910717973857E-2</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="16">
+        <v>2.731121589364093</v>
+      </c>
+      <c r="H15" s="16">
+        <v>-0.34139019867051151</v>
+      </c>
+      <c r="I15" s="16">
+        <v>3.3602643152762832</v>
+      </c>
+      <c r="J15" s="16">
+        <v>-0.42003303940953551</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="16">
+        <v>-9.9780970175366111E-3</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.1511964925582977</v>
+      </c>
+      <c r="I16" s="16">
+        <v>-0.33826599291200721</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.39883963125630351</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.27710843373493999</v>
+      </c>
+      <c r="D17" s="16">
+        <v>-0.39428571428571418</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.27710843373493982</v>
+      </c>
+      <c r="F17" s="16">
+        <v>-0.39428571428571441</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.27710843373493982</v>
+      </c>
+      <c r="H17" s="16">
+        <v>-0.39428571428571407</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.2771084337349396</v>
+      </c>
+      <c r="J17" s="16">
+        <v>-0.39428571428571429</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.27710843373493999</v>
+      </c>
+      <c r="D18" s="17">
+        <v>-0.39428571428571418</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.27710843373493982</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-0.39428571428571441</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2.9504948350936431</v>
+      </c>
+      <c r="H18" s="17">
+        <v>-0.62654316663378296</v>
+      </c>
+      <c r="I18" s="17">
+        <v>3.3151761524415511</v>
+      </c>
+      <c r="J18" s="17">
+        <v>-0.43665163681458441</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:E7 I2:L7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:D18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:F18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:J18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:J18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
+++ b/results/case2_cut_off/sensitivity_case2_cut_off.xlsx
@@ -1,94 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\case2_cut_off\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E246401-3D9A-4F67-9341-69E8A7729C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="case2_cut_off" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case2_cut_off" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>SUD - lower%</t>
-  </si>
-  <si>
-    <t>SUD - upper%</t>
-  </si>
-  <si>
-    <t>MUD - lower%</t>
-  </si>
-  <si>
-    <t>MUD - upper%</t>
-  </si>
-  <si>
-    <t>autoclave</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>cabinet washer</t>
-  </si>
-  <si>
-    <t>Life time</t>
-  </si>
-  <si>
-    <t>sterilization</t>
-  </si>
-  <si>
-    <t>surgery time</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,45 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{550E159F-977B-4EDD-8F61-3DAB5149C316}"/>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,127 +420,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>-4.775709098785285E-2</v>
-      </c>
-      <c r="E2">
-        <v>3.1838060658568722E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>-7.3901806894423813E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2.731121589364093</v>
-      </c>
-      <c r="E4">
-        <v>-0.34139019867051151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>-9.9780970175366111E-3</v>
-      </c>
-      <c r="E5">
-        <v>0.1511964925582977</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.27710843373493999</v>
-      </c>
-      <c r="C6">
-        <v>-0.39428571428571418</v>
-      </c>
-      <c r="D6">
-        <v>0.27710843373493982</v>
-      </c>
-      <c r="E6">
-        <v>-0.39428571428571407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.27710843373493999</v>
-      </c>
-      <c r="C7">
-        <v>-0.39428571428571418</v>
-      </c>
-      <c r="D7">
-        <v>2.9504948350936431</v>
-      </c>
-      <c r="E7">
-        <v>-0.62654316663378296</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SUD - lower%</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SUD - upper%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MUD - lower%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MUD - upper%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>autoclave</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08355817434412333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.04820663904468651</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>cabinet washer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.07459746319074996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Life time</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.719177329353509</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.3398971661691886</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>sterilization</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1526197401781761</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.1044799191123106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>surgery time</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2771084337349395</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3942857142857144</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2771084337349399</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.3942857142857141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2771084337349395</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.3942857142857144</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.232463677610748</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.9614669018026498</v>
       </c>
     </row>
   </sheetData>
